--- a/T3_Se.xlsx
+++ b/T3_Se.xlsx
@@ -366,12 +366,12 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2150.397</v>
+        <v>1898.077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.07199999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -381,12 +381,12 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.136</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="7">

--- a/T3_Se.xlsx
+++ b/T3_Se.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,32 +366,57 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1898.077</v>
+        <v>660.126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.08</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.001</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.011</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.005</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-0.016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.411</v>
       </c>
     </row>
   </sheetData>
